--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7D937-F8AF-4CCA-B1AF-E8DA599DD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42132C7-A4F9-432D-B834-7984DF6FE57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>CardData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识符</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +561,7 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,7 +789,9 @@
         <v>23</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
@@ -808,7 +814,9 @@
         <v>23</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42132C7-A4F9-432D-B834-7984DF6FE57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AEAAA6-BAE6-473F-BDAC-D48F174F19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>唯一标识符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（购买和卖出）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +585,7 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,11 +853,17 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
@@ -841,6 +871,15 @@
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AEAAA6-BAE6-473F-BDAC-D48F174F19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FF616-A5B3-477D-9877-CB4EF55805A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,94 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardAction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_生成卡牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_销毁自身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,CardAction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,7 +992,6 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -914,12 +1001,15 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -927,14 +1017,17 @@
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -952,8 +1045,12 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -990,7 +1087,9 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -999,17 +1098,22 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1018,11 +1122,17 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
@@ -1037,28 +1147,22 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -1066,18 +1170,6 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -1085,7 +1177,9 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1094,29 +1188,41 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
+      <c r="K22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
@@ -1131,25 +1237,34 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
+      <c r="K24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -1166,9 +1281,6 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
       <c r="N26" s="7"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FF616-A5B3-477D-9877-CB4EF55805A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90072F5-D6E2-4D54-A440-8CA3C7367BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -166,87 +166,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CA_销毁自身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,CardAction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品卡牌列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStrict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格按照配方顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_abstract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polymorphism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CA_生成卡牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CA_销毁自身</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardEvent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardEventType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>outputList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>workTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,CardAction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌效果</t>
+    <t>isRandom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机生成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,29 +706,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="6.75" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="17" max="17" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -703,37 +742,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -746,29 +791,31 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -777,35 +824,37 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -816,162 +865,174 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -982,115 +1043,129 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="N11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1098,47 +1173,21 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1147,130 +1196,136 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>23</v>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="N22" s="6"/>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1281,12 +1336,22 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1297,34 +1362,50 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="O27" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="O28" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1342,8 +1423,10 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1353,16 +1436,18 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="9"/>
       <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1373,15 +1458,17 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1392,15 +1479,17 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1411,15 +1500,17 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1430,15 +1521,17 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="7"/>
       <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1449,15 +1542,17 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="8"/>
       <c r="N35" s="6"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P35" s="6"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1468,15 +1563,17 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N36" s="6"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1487,15 +1584,17 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="9"/>
       <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1506,15 +1605,17 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="1"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1525,15 +1626,17 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="8"/>
       <c r="N39" s="6"/>
       <c r="O39" s="8"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1544,15 +1647,17 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="8"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="8"/>
       <c r="N40" s="6"/>
       <c r="O40" s="8"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="8"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1563,15 +1668,17 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="8"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="8"/>
       <c r="N41" s="6"/>
       <c r="O41" s="8"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="8"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1582,15 +1689,17 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="8"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="5"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="8"/>
+      <c r="O42" s="5"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q42" s="8"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1601,15 +1710,17 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="8"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="8"/>
       <c r="N43" s="6"/>
       <c r="O43" s="8"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="8"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1620,15 +1731,17 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="8"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="8"/>
       <c r="N44" s="6"/>
       <c r="O44" s="8"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="8"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1639,15 +1752,17 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="8"/>
+      <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
       <c r="N45" s="6"/>
       <c r="O45" s="8"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="8"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1658,15 +1773,17 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="8"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8"/>
       <c r="N46" s="6"/>
       <c r="O46" s="8"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="8"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1684,8 +1801,10 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -1696,13 +1815,15 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="2"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1713,13 +1834,15 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1730,13 +1853,15 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q50" s="2"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1747,13 +1872,15 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q51" s="2"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1771,43 +1898,45 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1825,8 +1954,10 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -1844,8 +1975,10 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -1855,16 +1988,18 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="L62" s="5"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1882,65 +2017,73 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
       <c r="O64" s="5"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q64" s="5"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="L65" s="8"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="8"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="8"/>
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
       <c r="O66" s="5"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="5"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1951,15 +2094,17 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="5"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="5"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="10"/>
+      <c r="O67" s="5"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q67" s="10"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1970,91 +2115,101 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="5"/>
       <c r="N68" s="6"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P68" s="6"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="L69" s="8"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="8"/>
       <c r="M70" s="5"/>
       <c r="N70" s="6"/>
       <c r="O70" s="5"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q70" s="5"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="8"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="7"/>
+      <c r="N71" s="6"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
-      <c r="Q71" s="6"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q71" s="5"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="6"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="8"/>
       <c r="M72" s="5"/>
       <c r="N72" s="6"/>
       <c r="O72" s="5"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="5"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2064,20 +2219,22 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="5"/>
+      <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
       <c r="O73" s="5"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="5"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -2090,46 +2247,52 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="8"/>
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
       <c r="O75" s="5"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="6"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P75" s="6"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="6"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="8"/>
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
       <c r="O76" s="5"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P76" s="6"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2140,34 +2303,38 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="5"/>
+      <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
       <c r="O77" s="5"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P77" s="6"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="8"/>
       <c r="M78" s="5"/>
       <c r="N78" s="6"/>
       <c r="O78" s="5"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P78" s="6"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2178,15 +2345,17 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="5"/>
+      <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
       <c r="O79" s="5"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2197,15 +2366,17 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
       <c r="O80" s="5"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q80" s="5"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2216,15 +2387,17 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="5"/>
+      <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
       <c r="O81" s="5"/>
       <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="5"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2235,53 +2408,59 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="5"/>
+      <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
       <c r="O82" s="5"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P82" s="6"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="8"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="8"/>
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
       <c r="O83" s="5"/>
       <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="5"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
       <c r="O84" s="5"/>
       <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q84" s="5"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2292,15 +2471,17 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="5"/>
+      <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
+      <c r="O85" s="5"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2318,27 +2499,31 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
+      <c r="O87" s="5"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2356,8 +2541,10 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2375,8 +2562,10 @@
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2394,27 +2583,31 @@
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
+      <c r="O91" s="5"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2425,34 +2618,38 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="5"/>
+      <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="5"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+      <c r="O92" s="5"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
+      <c r="O93" s="5"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2463,34 +2660,38 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="5"/>
+      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
+      <c r="O94" s="5"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
+      <c r="O95" s="5"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2501,15 +2702,17 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="5"/>
+      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="5"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+      <c r="O96" s="5"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2520,67 +2723,71 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="5"/>
+      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
+      <c r="O97" s="5"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="8"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="8"/>
+      <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="L98" s="8"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="K99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O99" s="5"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="5"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
+      <c r="O100" s="5"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
       <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
       <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="9"/>
       <c r="C102" s="6"/>
@@ -2598,13 +2805,15 @@
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="8"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -2617,8 +2826,10 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2636,27 +2847,31 @@
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="8"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="5"/>
+      <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="5"/>
       <c r="N105" s="6"/>
       <c r="O105" s="5"/>
       <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q105" s="5"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2667,15 +2882,17 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="5"/>
+      <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="5"/>
       <c r="N106" s="6"/>
       <c r="O106" s="5"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="6"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P106" s="6"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="6"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2686,34 +2903,38 @@
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="5"/>
+      <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="5"/>
       <c r="N107" s="6"/>
       <c r="O107" s="5"/>
       <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q107" s="5"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="5"/>
+      <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="5"/>
       <c r="N108" s="6"/>
       <c r="O108" s="5"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P108" s="6"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="6"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2731,27 +2952,31 @@
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="5"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="5"/>
       <c r="N110" s="6"/>
       <c r="O110" s="5"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q110" s="5"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -2767,29 +2992,33 @@
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="5"/>
+      <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="5"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O112" s="5"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -2805,77 +3034,95 @@
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-      <c r="K114" s="11"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="11"/>
       <c r="N114" s="7"/>
       <c r="O114" s="11"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" s="7"/>
+      <c r="Q114" s="11"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="11"/>
-      <c r="K116" s="1"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
       <c r="M116" s="1"/>
       <c r="O116" s="1"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K117" s="1"/>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M117" s="1"/>
       <c r="O117" s="1"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="K118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
       <c r="M118" s="1"/>
       <c r="O118" s="1"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="K119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
       <c r="M119" s="1"/>
       <c r="O119" s="1"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="K121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
       <c r="M121" s="1"/>
       <c r="O121" s="1"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="K122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
       <c r="M122" s="1"/>
       <c r="O122" s="1"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="K123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
       <c r="M123" s="1"/>
+      <c r="O123" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="M1:S1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90072F5-D6E2-4D54-A440-8CA3C7367BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C39C9-158F-4168-B7E9-FCA54942EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>随机生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedCardList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗卡牌列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -706,32 +718,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S123"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="5.875" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" customWidth="1"/>
     <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
     <col min="13" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
     <col min="17" max="17" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -778,7 +790,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -815,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -854,7 +866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -885,7 +897,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -914,7 +926,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -935,7 +947,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -964,7 +976,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -991,7 +1003,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1014,7 +1026,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1032,7 +1044,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1050,7 +1062,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1062,7 +1074,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>38</v>
@@ -1089,7 +1101,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>66</v>
@@ -1120,7 +1132,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="F15" s="5"/>
@@ -1144,7 +1156,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="M16" s="1" t="s">
         <v>60</v>
@@ -1158,7 +1170,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>39</v>
@@ -1178,12 +1190,12 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>54</v>
@@ -1210,8 +1222,9 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1221,24 +1234,19 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1248,112 +1256,114 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>62</v>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="M22" s="1" t="s">
-        <v>45</v>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
+      <c r="M24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
       <c r="M25" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N25" s="6"/>
       <c r="O25" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P25" s="6"/>
       <c r="Q25" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1364,48 +1374,45 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="6"/>
+      <c r="M27" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P27" s="6"/>
+        <v>23</v>
+      </c>
       <c r="Q27" s="6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="6"/>
+        <v>49</v>
+      </c>
       <c r="O28" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1418,15 +1425,21 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="O29" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1435,19 +1448,25 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N30" s="6"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="6"/>
+      <c r="O30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1460,17 +1479,17 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="8"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="9"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1480,7 +1499,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="8"/>
       <c r="N32" s="6"/>
       <c r="O32" s="8"/>
@@ -1489,7 +1508,7 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1510,7 +1529,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1525,13 +1544,13 @@
       <c r="L34" s="6"/>
       <c r="M34" s="8"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="7"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1547,12 +1566,12 @@
       <c r="M35" s="8"/>
       <c r="N35" s="6"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="7"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1567,13 +1586,13 @@
       <c r="L36" s="6"/>
       <c r="M36" s="8"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1589,12 +1608,12 @@
       <c r="M37" s="8"/>
       <c r="N37" s="6"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="7"/>
       <c r="S37" s="6"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1607,17 +1626,17 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="5"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1631,12 +1650,12 @@
       <c r="M39" s="8"/>
       <c r="N39" s="6"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="8"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1649,17 +1668,17 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="8"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="8"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1678,7 +1697,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1693,13 +1712,13 @@
       <c r="L42" s="6"/>
       <c r="M42" s="8"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="5"/>
+      <c r="O42" s="8"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1720,7 +1739,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1735,13 +1754,13 @@
       <c r="L44" s="6"/>
       <c r="M44" s="8"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="8"/>
+      <c r="O44" s="5"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1762,7 +1781,7 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1783,7 +1802,7 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1796,17 +1815,17 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="O47" s="8"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="Q47" s="8"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -1817,13 +1836,15 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="Q48" s="2"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="8"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1836,15 +1857,17 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1861,7 +1884,7 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1880,7 +1903,7 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1893,94 +1916,90 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
+      <c r="M52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="Q52" s="2"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="Q53" s="2"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -1990,7 +2009,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="5"/>
+      <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -1999,9 +2018,9 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2020,12 +2039,12 @@
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2033,27 +2052,27 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
+      <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="5"/>
+      <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="5"/>
+      <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="8"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
@@ -2062,9 +2081,9 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2074,7 +2093,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="8"/>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
       <c r="O66" s="5"/>
@@ -2083,91 +2102,91 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="5"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="5"/>
+      <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="10"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="L68" s="8"/>
       <c r="M68" s="5"/>
       <c r="N68" s="6"/>
       <c r="O68" s="5"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="5"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
+      <c r="O69" s="5"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
+      <c r="Q69" s="10"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="8"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="5"/>
       <c r="N70" s="6"/>
       <c r="O70" s="5"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="5"/>
@@ -2180,15 +2199,15 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="5"/>
+      <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="7"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
       <c r="S71" s="6"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="5"/>
@@ -2209,29 +2228,30 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="L73" s="8"/>
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
       <c r="O73" s="5"/>
-      <c r="P73" s="6"/>
+      <c r="P73" s="7"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="6"/>
+      <c r="R73" s="7"/>
       <c r="S73" s="6"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2241,39 +2261,38 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="5"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="O74" s="5"/>
       <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
+      <c r="Q74" s="5"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="8"/>
+      <c r="L75" s="6"/>
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
       <c r="O75" s="5"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="7"/>
+      <c r="R75" s="6"/>
       <c r="S75" s="6"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2283,37 +2302,37 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="5"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="5"/>
+      <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="7"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
       <c r="S76" s="6"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="L77" s="8"/>
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
       <c r="O77" s="5"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="5"/>
@@ -2334,7 +2353,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="6"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2352,31 +2371,31 @@
       <c r="O79" s="5"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="L80" s="8"/>
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
       <c r="O80" s="5"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="6"/>
+      <c r="R80" s="7"/>
       <c r="S80" s="6"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2397,7 +2416,7 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2415,22 +2434,22 @@
       <c r="O82" s="5"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="5"/>
-      <c r="R82" s="7"/>
+      <c r="R82" s="6"/>
       <c r="S82" s="6"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="8"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
       <c r="O83" s="5"/>
@@ -2439,82 +2458,82 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="5"/>
+      <c r="L84" s="6"/>
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
       <c r="O84" s="5"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="6"/>
+      <c r="R84" s="7"/>
       <c r="S84" s="6"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+      <c r="L85" s="8"/>
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
       <c r="O85" s="5"/>
       <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
+      <c r="Q85" s="5"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
+      <c r="O86" s="5"/>
       <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
+      <c r="Q86" s="5"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="5"/>
+      <c r="L87" s="6"/>
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
       <c r="O87" s="5"/>
@@ -2523,7 +2542,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2544,28 +2563,28 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
+      <c r="O89" s="5"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2586,28 +2605,28 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
       <c r="N91" s="6"/>
-      <c r="O91" s="5"/>
+      <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2620,15 +2639,15 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="5"/>
+      <c r="M92" s="6"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="5"/>
+      <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2649,7 +2668,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2670,7 +2689,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2691,7 +2710,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2712,19 +2731,19 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
+      <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
       <c r="O97" s="5"/>
@@ -2733,66 +2752,79 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="5"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
+      <c r="O98" s="5"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
       <c r="M99" s="5"/>
+      <c r="N99" s="6"/>
       <c r="O99" s="5"/>
-      <c r="Q99" s="1"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="5"/>
-      <c r="O100" s="5"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="Q101" s="6"/>
+      <c r="M101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="Q101" s="1"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -2800,38 +2832,25 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
+      <c r="M102" s="5"/>
+      <c r="O102" s="5"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -2850,7 +2869,7 @@
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="8"/>
       <c r="C105" s="5"/>
@@ -2863,15 +2882,15 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="5"/>
+      <c r="M105" s="6"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="5"/>
+      <c r="O105" s="6"/>
       <c r="P105" s="6"/>
-      <c r="Q105" s="5"/>
+      <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2884,20 +2903,20 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="5"/>
+      <c r="M106" s="6"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="5"/>
+      <c r="O106" s="6"/>
       <c r="P106" s="6"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="7"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
       <c r="S106" s="6"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -2913,12 +2932,12 @@
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -2934,7 +2953,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="6"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2947,15 +2966,15 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
+      <c r="M109" s="5"/>
       <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
+      <c r="O109" s="5"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
+      <c r="Q109" s="5"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2973,11 +2992,11 @@
       <c r="O110" s="5"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="5"/>
-      <c r="R110" s="6"/>
+      <c r="R110" s="7"/>
       <c r="S110" s="6"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2994,11 +3013,11 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3014,87 +3033,114 @@
       <c r="N112" s="6"/>
       <c r="O112" s="5"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="11"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B116" s="2"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
-      <c r="M116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="11"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
       <c r="M118" s="1"/>
       <c r="O118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M119" s="1"/>
       <c r="O119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3103,22 +3149,37 @@
       <c r="O121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="M123" s="1"/>
       <c r="O123" s="1"/>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="O125" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C39C9-158F-4168-B7E9-FCA54942EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514D0B3-6258-4BC6-9592-80E67258D8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S125"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1392,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1400,14 +1404,13 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="6"/>
       <c r="Q28" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -1425,71 +1428,76 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="6"/>
+      <c r="M29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="O29" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="1" t="s">
-        <v>40</v>
+      <c r="L30" s="6"/>
+      <c r="M30" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="O31" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1499,18 +1507,18 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="8"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="9"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1520,7 +1528,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="8"/>
       <c r="N33" s="6"/>
       <c r="O33" s="8"/>
@@ -1586,8 +1594,8 @@
       <c r="L36" s="6"/>
       <c r="M36" s="8"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="7"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -1607,10 +1615,10 @@
       <c r="L37" s="6"/>
       <c r="M37" s="8"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="7"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -1629,9 +1637,9 @@
       <c r="M38" s="8"/>
       <c r="N38" s="6"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="6"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -1651,7 +1659,7 @@
       <c r="N39" s="6"/>
       <c r="O39" s="8"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="5"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
@@ -1668,17 +1676,17 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="6"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="9"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1689,17 +1697,17 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="8"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="8"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="8"/>
+      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1754,7 +1762,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="8"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="8"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="6"/>
@@ -1775,7 +1783,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="8"/>
+      <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="6"/>
@@ -1857,17 +1865,17 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="O49" s="8"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
+      <c r="Q49" s="8"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1878,15 +1886,17 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="Q50" s="2"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1954,16 +1964,30 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="M54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="Q54" s="2"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
@@ -1984,13 +2008,13 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
@@ -1999,28 +2023,12 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2040,7 +2048,7 @@
       <c r="S63" s="6"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2051,7 +2059,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="5"/>
+      <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
@@ -2062,7 +2070,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2072,7 +2080,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="L65" s="5"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
@@ -2083,28 +2091,28 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="5"/>
+      <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="5"/>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2114,12 +2122,12 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="6"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
+      <c r="O67" s="5"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
+      <c r="Q67" s="5"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
     </row>
@@ -2136,32 +2144,32 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="5"/>
+      <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="5"/>
+      <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="L69" s="8"/>
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
       <c r="O69" s="5"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="10"/>
+      <c r="Q69" s="5"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
     </row>
@@ -2182,30 +2190,30 @@
       <c r="N70" s="6"/>
       <c r="O70" s="5"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="5"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+      <c r="O71" s="5"/>
       <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
@@ -2220,11 +2228,11 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="5"/>
+      <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="5"/>
+      <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
     </row>
@@ -2244,9 +2252,9 @@
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
       <c r="O73" s="5"/>
-      <c r="P73" s="7"/>
+      <c r="P73" s="6"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="7"/>
+      <c r="R73" s="6"/>
       <c r="S73" s="6"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -2265,23 +2273,24 @@
       <c r="M74" s="5"/>
       <c r="N74" s="6"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="6"/>
+      <c r="P74" s="7"/>
       <c r="Q74" s="5"/>
-      <c r="R74" s="6"/>
+      <c r="R74" s="7"/>
       <c r="S74" s="6"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="L75" s="8"/>
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
       <c r="O75" s="5"/>
@@ -2292,10 +2301,9 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -2303,17 +2311,17 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
+      <c r="M76" s="5"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
+      <c r="O76" s="5"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
+      <c r="Q76" s="5"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2323,13 +2331,13 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="5"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="5"/>
+      <c r="O77" s="6"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="7"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
       <c r="S77" s="6"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -2355,65 +2363,65 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+      <c r="L79" s="8"/>
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
       <c r="O79" s="5"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
+      <c r="S79" s="6"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="8"/>
+      <c r="L80" s="6"/>
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
       <c r="O80" s="5"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="6"/>
+      <c r="S80" s="7"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+      <c r="L81" s="8"/>
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
       <c r="O81" s="5"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="6"/>
+      <c r="R81" s="7"/>
       <c r="S81" s="6"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -2476,33 +2484,33 @@
       <c r="O84" s="5"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="7"/>
+      <c r="R84" s="6"/>
       <c r="S84" s="6"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="8"/>
+      <c r="L85" s="6"/>
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
       <c r="O85" s="5"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="6"/>
+      <c r="R85" s="7"/>
       <c r="S85" s="6"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2512,7 +2520,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="5"/>
+      <c r="L86" s="8"/>
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
       <c r="O86" s="5"/>
@@ -2523,22 +2531,22 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+      <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
       <c r="O87" s="5"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
+      <c r="Q87" s="5"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
     </row>
@@ -2555,9 +2563,9 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="5"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
+      <c r="O88" s="5"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
@@ -2565,20 +2573,20 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="5"/>
+      <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
@@ -2586,20 +2594,20 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
+      <c r="O90" s="5"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
@@ -2649,20 +2657,20 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-      <c r="O93" s="5"/>
+      <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
@@ -2670,17 +2678,17 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
+      <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
       <c r="O94" s="5"/>
@@ -2691,17 +2699,17 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
-      <c r="L95" s="5"/>
+      <c r="L95" s="6"/>
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
       <c r="O95" s="5"/>
@@ -2712,17 +2720,17 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
+      <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="6"/>
       <c r="O96" s="5"/>
@@ -2733,17 +2741,17 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="5"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
       <c r="O97" s="5"/>
@@ -2754,17 +2762,17 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="6"/>
       <c r="O98" s="5"/>
@@ -2795,21 +2803,21 @@
       <c r="S99" s="6"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="5"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
+      <c r="O100" s="5"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
@@ -2817,64 +2825,64 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="Q101" s="1"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
       <c r="M102" s="5"/>
       <c r="O102" s="5"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
+      <c r="Q102" s="1"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
+      <c r="A104" s="5"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -2892,10 +2900,10 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -2913,10 +2921,10 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -2924,20 +2932,20 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="5"/>
+      <c r="M107" s="6"/>
       <c r="N107" s="6"/>
-      <c r="O107" s="5"/>
+      <c r="O107" s="6"/>
       <c r="P107" s="6"/>
-      <c r="Q107" s="5"/>
+      <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -2950,7 +2958,7 @@
       <c r="O108" s="5"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="5"/>
-      <c r="R108" s="7"/>
+      <c r="R108" s="6"/>
       <c r="S108" s="6"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
@@ -2971,15 +2979,15 @@
       <c r="O109" s="5"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="5"/>
-      <c r="R109" s="6"/>
+      <c r="R109" s="7"/>
       <c r="S109" s="6"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -2992,15 +3000,15 @@
       <c r="O110" s="5"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="5"/>
-      <c r="R110" s="7"/>
+      <c r="R110" s="6"/>
       <c r="S110" s="6"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -3008,20 +3016,20 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
+      <c r="M111" s="5"/>
       <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
+      <c r="O111" s="5"/>
       <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="7"/>
       <c r="S111" s="6"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -3029,20 +3037,20 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="5"/>
+      <c r="M112" s="6"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="5"/>
+      <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="5"/>
+      <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -3050,20 +3058,20 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
+      <c r="M113" s="5"/>
       <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
+      <c r="O113" s="5"/>
       <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -3071,39 +3079,41 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="5"/>
+      <c r="M114" s="6"/>
       <c r="N114" s="6"/>
-      <c r="O114" s="5"/>
+      <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -3111,31 +3121,41 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
-      <c r="M116" s="11"/>
+      <c r="M116" s="7"/>
       <c r="N116" s="7"/>
-      <c r="O116" s="11"/>
+      <c r="O116" s="7"/>
       <c r="P116" s="7"/>
-      <c r="Q116" s="11"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="M118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="Q118" s="1"/>
+      <c r="Q116" s="7"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="11"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
       <c r="M119" s="1"/>
       <c r="O119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
       <c r="M120" s="1"/>
       <c r="O120" s="1"/>
       <c r="Q120" s="1"/>
@@ -3154,15 +3174,15 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="Q122" s="1"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="Q123" s="1"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
@@ -3180,6 +3200,15 @@
       <c r="E125" s="1"/>
       <c r="M125" s="1"/>
       <c r="O125" s="1"/>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="O126" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514D0B3-6258-4BC6-9592-80E67258D8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D38B69-F3A0-4963-8D57-B98E32FD30B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1037,13 +1049,13 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1061,8 +1073,15 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="M11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
     </row>

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D38B69-F3A0-4963-8D57-B98E32FD30B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8AB407-612E-4A18-AFBF-40136499A79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>卡牌标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（俺寻思）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -734,32 +738,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
     <col min="13" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
     <col min="17" max="17" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -843,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -882,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -913,7 +917,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -942,7 +946,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -963,7 +967,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -992,7 +996,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -1019,7 +1023,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1042,7 +1046,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1060,7 +1064,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1085,7 +1089,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1093,137 +1097,147 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
+      <c r="M12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="7"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="M16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
+      <c r="M17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
+      <c r="M18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1233,43 +1247,19 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1279,23 +1269,22 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="Q21" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1305,24 +1294,19 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1332,111 +1316,114 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>62</v>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="M24" s="1" t="s">
-        <v>45</v>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
+      <c r="M26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
       <c r="M27" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N27" s="6"/>
       <c r="O27" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1448,21 +1435,20 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1473,48 +1459,45 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="6"/>
+      <c r="M30" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="O30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" s="6"/>
+        <v>23</v>
+      </c>
       <c r="Q30" s="6" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="6"/>
+        <v>49</v>
+      </c>
       <c r="O31" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1527,15 +1510,21 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="Q32" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1544,19 +1533,25 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="8"/>
+      <c r="M33" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N33" s="6"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="6"/>
+      <c r="O33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1569,17 +1564,17 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="8"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1589,7 +1584,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="8"/>
       <c r="N35" s="6"/>
       <c r="O35" s="8"/>
@@ -1598,7 +1593,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1619,7 +1614,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1634,13 +1629,13 @@
       <c r="L37" s="6"/>
       <c r="M37" s="8"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="7"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="9"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1656,12 +1651,12 @@
       <c r="M38" s="8"/>
       <c r="N38" s="6"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="7"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1676,13 +1671,13 @@
       <c r="L39" s="6"/>
       <c r="M39" s="8"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1698,12 +1693,12 @@
       <c r="M40" s="8"/>
       <c r="N40" s="6"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="7"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1716,17 +1711,17 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="5"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1740,12 +1735,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="6"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="8"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1758,17 +1753,17 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="8"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="8"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1787,7 +1782,7 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1802,13 +1797,13 @@
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1829,7 +1824,7 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1844,13 +1839,13 @@
       <c r="L47" s="6"/>
       <c r="M47" s="8"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="8"/>
+      <c r="O47" s="5"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1871,7 +1866,7 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1892,7 +1887,7 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1905,17 +1900,17 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="O50" s="8"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
+      <c r="Q50" s="8"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1926,13 +1921,15 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="Q51" s="2"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="8"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1945,15 +1942,17 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -1970,7 +1969,7 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1989,7 +1988,7 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2002,94 +2001,90 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="M55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="Q55" s="2"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="Q56" s="2"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2099,7 +2094,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
@@ -2108,9 +2103,9 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -2129,12 +2124,12 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -2142,27 +2137,27 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+      <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="5"/>
+      <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="5"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="8"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -2171,9 +2166,9 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2183,7 +2178,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="8"/>
+      <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
       <c r="O69" s="5"/>
@@ -2192,91 +2187,91 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="5"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="5"/>
+      <c r="O70" s="6"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="10"/>
+      <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="L71" s="8"/>
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
       <c r="O71" s="5"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="5"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="5"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="O72" s="5"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
+      <c r="Q72" s="10"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="8"/>
+      <c r="L73" s="6"/>
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
       <c r="O73" s="5"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="5"/>
@@ -2289,15 +2284,15 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="5"/>
+      <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="7"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
       <c r="S74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="5"/>
@@ -2318,29 +2313,30 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+      <c r="L76" s="8"/>
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
       <c r="O76" s="5"/>
-      <c r="P76" s="6"/>
+      <c r="P76" s="7"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="6"/>
+      <c r="R76" s="7"/>
       <c r="S76" s="6"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2350,39 +2346,38 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="5"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="O77" s="5"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
+      <c r="Q77" s="5"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="8"/>
+      <c r="L78" s="6"/>
       <c r="M78" s="5"/>
       <c r="N78" s="6"/>
       <c r="O78" s="5"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="7"/>
+      <c r="R78" s="6"/>
       <c r="S78" s="6"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2392,37 +2387,37 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="5"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="5"/>
+      <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="7"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="L80" s="8"/>
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
       <c r="O80" s="5"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="5"/>
@@ -2443,7 +2438,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="6"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2461,31 +2456,31 @@
       <c r="O82" s="5"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="5"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+      <c r="L83" s="8"/>
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
       <c r="O83" s="5"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="6"/>
+      <c r="R83" s="7"/>
       <c r="S83" s="6"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2506,7 +2501,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2524,22 +2519,22 @@
       <c r="O85" s="5"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="7"/>
+      <c r="R85" s="6"/>
       <c r="S85" s="6"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="8"/>
+      <c r="L86" s="6"/>
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
       <c r="O86" s="5"/>
@@ -2548,82 +2543,82 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="5"/>
+      <c r="L87" s="6"/>
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
       <c r="O87" s="5"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="5"/>
-      <c r="R87" s="6"/>
+      <c r="R87" s="7"/>
       <c r="S87" s="6"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="L88" s="8"/>
       <c r="M88" s="5"/>
       <c r="N88" s="6"/>
       <c r="O88" s="5"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
+      <c r="Q88" s="5"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
+      <c r="O89" s="5"/>
       <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
+      <c r="Q89" s="5"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="5"/>
+      <c r="L90" s="6"/>
       <c r="M90" s="5"/>
       <c r="N90" s="6"/>
       <c r="O90" s="5"/>
@@ -2632,7 +2627,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2653,28 +2648,28 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+      <c r="O92" s="5"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2695,28 +2690,28 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="5"/>
+      <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2729,15 +2724,15 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="5"/>
+      <c r="M95" s="6"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="5"/>
+      <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2758,7 +2753,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2779,7 +2774,7 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2800,7 +2795,7 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2821,19 +2816,19 @@
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+      <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="6"/>
       <c r="O100" s="5"/>
@@ -2842,66 +2837,79 @@
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="5"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
+      <c r="O101" s="5"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="5"/>
+      <c r="N102" s="6"/>
       <c r="O102" s="5"/>
-      <c r="Q102" s="1"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="5"/>
-      <c r="O103" s="5"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="Q104" s="6"/>
+      <c r="M104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="Q104" s="1"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" s="5"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -2909,38 +2917,25 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
+      <c r="M105" s="5"/>
+      <c r="O105" s="5"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -2959,7 +2954,7 @@
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="8"/>
       <c r="C108" s="5"/>
@@ -2972,15 +2967,15 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="5"/>
+      <c r="M108" s="6"/>
       <c r="N108" s="6"/>
-      <c r="O108" s="5"/>
+      <c r="O108" s="6"/>
       <c r="P108" s="6"/>
-      <c r="Q108" s="5"/>
+      <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2993,20 +2988,20 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="5"/>
+      <c r="M109" s="6"/>
       <c r="N109" s="6"/>
-      <c r="O109" s="5"/>
+      <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="7"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
       <c r="S109" s="6"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -3022,12 +3017,12 @@
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -3043,7 +3038,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="6"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3056,15 +3051,15 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
+      <c r="M112" s="5"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
+      <c r="O112" s="5"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
+      <c r="Q112" s="5"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3082,11 +3077,11 @@
       <c r="O113" s="5"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="5"/>
-      <c r="R113" s="6"/>
+      <c r="R113" s="7"/>
       <c r="S113" s="6"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3103,11 +3098,11 @@
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3123,87 +3118,114 @@
       <c r="N115" s="6"/>
       <c r="O115" s="5"/>
       <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="11"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" s="7"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
-      <c r="M119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="11"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B121" s="2"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
       <c r="M121" s="1"/>
       <c r="O121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M122" s="1"/>
       <c r="O122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3212,22 +3234,37 @@
       <c r="O124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="M126" s="1"/>
       <c r="O126" s="1"/>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="O128" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
